--- a/Sparse_data_set.xlsx
+++ b/Sparse_data_set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangqian/Desktop/TSMC_SUAV/data_set/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangqian/Desktop/TSMC_SUAV/UGRA_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57AF42F-D10D-8149-84B0-6CACE2FB458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ED7E2C-C5DE-9F4E-898B-CCBFE83837C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="560" windowWidth="28080" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="800" windowWidth="28080" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -25,250 +25,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>列（校正点类型）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>表示垂直误差校正点，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>表示水平误差校正点，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>列（第三问标记）：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>表示第三问中可能出现问题的点，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>表示正常校正点</t>
-    </r>
+    <t>Note: This dataset records the dense data obtained in Ref. [13]. The unit of the three coordinates below is meters. Correction Point Type = 1 represents the horizontal correction point while 0 as vertical correction point.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
+    <t>ID</t>
   </si>
   <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坐标（单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>Coordinate x</t>
   </si>
   <si>
-    <r>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坐标（单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>Coordinate y</t>
   </si>
   <si>
-    <r>
-      <t>Z</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>坐标（单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>: m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
+    <t>Coordinate z</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>校正点标记</t>
-    </r>
+    <t>Correction Point Type</t>
   </si>
 </sst>
 </file>
@@ -278,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,20 +75,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -340,19 +106,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -692,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:L330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -707,5607 +472,5609 @@
     <col min="5" max="5" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="1" spans="1:12" ht="16">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="16">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>50000</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>5000</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
         <v>76009.848437925393</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>9788.1115459900593</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9121.8953124997606</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="3">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2448.1990540388601</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>71599.875612124102</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1877.1286624798799</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="3">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>27800.9290666058</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>15218.071945261199</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8345.41037231681</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="3">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>50056.728449808201</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>91668.088891029198</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1465.09230198006</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="3">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>25311.153325027899</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>51225.793080480602</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1330.35003155196</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="3">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>66791.683503711494</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>41837.610402427599</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>343.048806852913</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="3">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>35343.5199250675</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>93569.366497427094</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>4751.5404931777903</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="3">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>28165.2376874816</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>61559.663308746298</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>5480.8116991403404</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="3">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>60241.157043396001</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>32796.423982750799</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>8658.5917651247091</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="3">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>16543.8557124584</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>34014.413375395503</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>6051.7294898362097</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="3">
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>98086.603348614895</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>91631.129970358699</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>9592.6921528748007</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="3">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>74713.256937120095</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>46277.028797020801</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5954.7646629662504</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="3">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>57039.996134425201</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>80371.290903930305</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>1776.0113684954699</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>31642.270348483398</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2151.0583466713701</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>8462.8450103915002</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>67121.542747818894</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>13614.731640346599</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>9915.0016971747591</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>84170.984431467499</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>48520.698469110699</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6543.2298067717902</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>79986.485554843399</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>98628.3334352315</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>7918.5184528913296</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>70515.224086325703</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>30753.497343815699</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>333.829282403268</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>67028.007374508801</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>72616.158674443097</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>9219.8075421588292</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>70495.819326820405</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>94075.453634842997</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>5639.5135825111602</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>56319.836869109196</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>6126.6536625246799</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>9431.8343028106192</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>92681.146907903007</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>43116.778518763298</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>8712.0813991727191</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>3856.0029041223602</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>9422.4950065806006</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>8455.2331631100606</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>24249.657917173001</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>96350.745586425197</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>9648.3623031755706</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>57358.433262781102</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>108.666733584816</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>3414.2385566565899</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>13512.546385886</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>8999.6140481984494</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>7183.2290970445601</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>52962.839064495703</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>95711.526455769199</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1034.0711239907901</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>11814.755169775401</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>52.6207405173284</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>6435.64774244198</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>57786.193820372697</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>13681.8170161288</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>2582.2275455754502</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>35676.614327433002</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>83265.205593508101</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>3967.9879506049501</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>21630.939070673299</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>43809.572612018099</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>3993.8030786814002</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>52226.171812896697</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>94586.132369055296</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>5652.5528061781597</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>59129.343007891803</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>80211.711493966504</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>5183.3924836662</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>93328.501696798907</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>95547.957834949499</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>4295.8730462603999</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>63668.976318565001</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>84461.739531652594</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>8791.3027184921502</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>37749.338144919697</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>34360.565148865702</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>6200.0096463866203</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>11248.890725043</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>33918.666901784702</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>9150.3967438686996</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>81748.546157171193</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>71186.880943220895</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>534.40315961187105</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>70419.778147534598</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>42495.236286020801</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>9969.0066733654203</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>13581.6632414786</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>63600.427173287098</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>189.21437728231501</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>56370.5630445602</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>73489.366040884197</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>3025.3326981698701</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>51547.944438868501</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>18628.325421597099</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>2039.77412436395</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>54264.1851691724</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>6487.5334633913999</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>6996.6932715399198</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>63730.964878546503</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>52737.267389020402</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>7069.5126453819503</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>57201.391105156297</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>62250.795878762103</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>4688.6132976694298</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>50809.704858809797</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>51850.76471951</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>9513.8086006538306</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>39956.661268477801</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>40188.1768368833</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>9100.4561731812591</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>4575.9981472398003</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>74866.452003301805</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>2333.6856556978801</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>58214.388508886601</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="4">
         <v>65753.285115387698</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>4194.7034738353404</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>71937.111377849695</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="4">
         <v>77174.686797261602</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>5575.0713907156096</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>70924.680089351503</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>43597.785686119198</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>9647.2540810379305</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>27474.225456668399</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>94463.477209121105</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>816.63053781669998</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>36119.925229150198</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="4">
         <v>29099.0190722507</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>4521.4574206851303</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>42850.3521652981</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="4">
         <v>56098.0456893995</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>9809.6300511340305</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>35387.101109966301</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>13689.902921126</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>3566.5178077844198</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>13469.679603280299</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="4">
         <v>70397.760268941507</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>669.925931432835</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>54183.354760993301</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="4">
         <v>88365.020846765299</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>7078.5826072870595</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>22860.634490286699</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>68012.6278705226</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>544.10333681040299</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>98918.952128186094</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="4">
         <v>70497.351023655894</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>5733.9278102917397</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>24164.691904041301</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="4">
         <v>39216.180898594801</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>8380.4809235619305</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>87932.9914306055</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="4">
         <v>72373.737951494506</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>5346.5766295052199</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>60948.679915884502</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="4">
         <v>93142.762967823903</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>7909.8596886919404</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>67741.025907932795</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>56443.8623031682</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>388.70746598088999</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>64</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>76919.8858915772</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>11363.2650606633</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>3400.4204759612899</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>17735.840933580799</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <v>78983.596061370394</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>2623.49967786863</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>66</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>31137.686822317999</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="4">
         <v>1888.35540791024</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>549.79982539847799</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>67</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>27463.397417245</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>95004.050079443507</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>3607.6674513790699</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>68</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>56755.817818646101</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="4">
         <v>98668.537164195906</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>6770.8216137248901</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>69</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>45269.974038426299</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="4">
         <v>20734.1051905727</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>1782.4477097663701</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>64942.514114072903</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>55054.351589395097</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>1312.4232186603299</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>71</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>91164.957383016197</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="4">
         <v>52685.524871472902</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>6309.8898853925702</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>72</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>78564.7566145827</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="4">
         <v>87712.315761958103</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>3859.44036191132</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>73</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>56926.529162823201</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="4">
         <v>41554.345187525498</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>6274.0941478090699</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>74</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="4">
         <v>10173.5310774973</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="4">
         <v>19262.812592616901</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>4590.1168838175799</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>75</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="4">
         <v>18451.810469840599</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>65375.749152538199</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>9921.0007923180692</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>76</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="4">
         <v>64131.246864930101</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>37555.937079182098</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>1719.5905680848</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>77</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="4">
         <v>61969.0010800276</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="4">
         <v>32364.482546267402</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>5559.6607855052298</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>78</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="4">
         <v>27094.852872696702</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="4">
         <v>6847.8062348591702</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>8872.5672810593496</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>79</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="4">
         <v>40283.566466171404</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="4">
         <v>45115.837819931701</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>3540.33665419114</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E82" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>80</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="4">
         <v>57381.544008035897</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="4">
         <v>17331.8169915611</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>5658.6090392967599</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E83" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>81</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>92697.1297204234</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>44340.440052607599</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>2931.4832379650802</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>82</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>61621.194544835802</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>44398.477883723899</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>4624.1769618698499</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E85" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>83</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>81250.150058528496</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>35445.469443903297</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>6691.5345213664496</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E86" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>84</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>91993.822288027804</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>64539.097565981603</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>3004.8651361781599</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E87" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>85</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>58269.189772239901</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>25283.7729713798</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>6199.7349339582497</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E88" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>86</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="4">
         <v>55528.565953227197</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="4">
         <v>43267.268152191296</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>1265.2887909564699</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E89" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>87</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="4">
         <v>77695.688607088203</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="4">
         <v>91181.255327056293</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>396.38358594058099</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E90" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>88</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="4">
         <v>73555.690101040294</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="4">
         <v>76284.833908485598</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>6989.7446305492904</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>89</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="4">
         <v>20201.076964451</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="4">
         <v>29693.5885480574</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>5920.3471011708198</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>90</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>45048.499800158701</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>75139.78216355</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>2040.08586349761</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>91</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>1181.0887221491</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>66572.8186489707</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>7188.1433081370596</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>92</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>69704.889795799798</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>66433.085533331207</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>4985.0541748671503</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>93</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>79005.752752954606</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>68248.826717008793</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>5381.1794718485999</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="16">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>94</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>3596.0356455778901</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>78492.091443357698</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D97" s="4">
         <v>9842.3304699919099</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E97" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="16">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>95</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="4">
         <v>25614.663062846699</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="4">
         <v>3339.7225932810902</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>2992.3257206162398</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="16">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>96</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="4">
         <v>83225.503260233396</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="4">
         <v>76403.164031444394</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>7249.0588574147596</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="16">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>97</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="4">
         <v>94019.142171287007</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="4">
         <v>84846.592988669305</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>3685.8026555807501</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E100" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="16">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>98</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="4">
         <v>64053.332944047601</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="4">
         <v>25762.351931859099</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>6122.7089407167996</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E101" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="16">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>99</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="4">
         <v>92711.210317275996</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>75096.715388607307</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>848.45415764345296</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="16">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>100</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="4">
         <v>19121.8247050473</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>39665.628403995397</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>5341.8402746906704</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="16">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>101</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="4">
         <v>91373.430744887199</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>52953.568012121097</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>8338.3012230378099</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E104" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="16">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>102</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="4">
         <v>7017.3420529441501</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>1189.9976685699701</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="4">
         <v>1041.9868112857</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E105" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="16">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>103</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="4">
         <v>47848.3705742538</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>31772.099409680999</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>9009.2690068215197</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="16">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>104</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="4">
         <v>12806.471991996599</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>58720.205419057398</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>2384.6279830369999</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E107" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="16">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>105</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="4">
         <v>13090.4194711808</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="4">
         <v>50889.450377506699</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>656.34830892418995</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E108" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="16">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>106</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="4">
         <v>5955.2539981189902</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="4">
         <v>96614.131390202499</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>8205.5319569496896</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E109" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="16">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>107</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="4">
         <v>92841.744079899494</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="4">
         <v>16073.1600945103</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>5024.3105712782699</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E110" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="16">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>108</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="4">
         <v>48254.752391645401</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="4">
         <v>45291.034068519097</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D111" s="4">
         <v>3049.7079118077099</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E111" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="16">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>109</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="4">
         <v>54400.192290314502</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="4">
         <v>17053.560565503001</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="4">
         <v>7460.2013070886896</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="16">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>110</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="4">
         <v>83522.467142428897</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="4">
         <v>74687.816584847198</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>654.16508778901596</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="16">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>111</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="4">
         <v>39222.5241165029</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="4">
         <v>6108.9967676057004</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>4055.56466922349</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="16">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>112</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="4">
         <v>40921.493834974201</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="4">
         <v>29165.755795459499</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>6524.2157848463603</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="16">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>113</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="4">
         <v>62044.208871075003</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="4">
         <v>4940.7426630637001</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>3076.7571677308501</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="16">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>114</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="4">
         <v>17780.0238454461</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="4">
         <v>52287.882095333101</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>5425.1826806629497</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="16">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>115</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="4">
         <v>57413.3570454293</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="4">
         <v>60947.741961816901</v>
       </c>
-      <c r="D118" s="5">
+      <c r="D118" s="4">
         <v>2901.3404534698898</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="16">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>116</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="4">
         <v>39985.495155226497</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="4">
         <v>33163.924269508701</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="4">
         <v>7387.5727633413098</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="16">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>117</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="4">
         <v>53959.974300951297</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="4">
         <v>22388.161114727802</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>8238.0815677627797</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="16">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>118</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="4">
         <v>97839.012788000793</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="4">
         <v>98443.775479284304</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>6666.1672736362898</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="16">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>119</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="4">
         <v>48746.764405582901</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="4">
         <v>43917.416818641897</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>5045.6708763298702</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="16">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>120</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="4">
         <v>92962.580890508005</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="4">
         <v>40597.668324869403</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>9202.2115488333802</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="16">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>121</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="4">
         <v>44286.204225325098</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="4">
         <v>57515.646687816399</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>7118.2783365638497</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="16">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>122</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="4">
         <v>71773.322333607895</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="4">
         <v>15915.853174371099</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D125" s="4">
         <v>4720.2837371631504</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="16">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>123</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="4">
         <v>47236.336197539698</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="4">
         <v>61603.807258505301</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D126" s="4">
         <v>5322.9260958753603</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="16">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>124</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="4">
         <v>97583.487709553199</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="4">
         <v>69943.327885692896</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>8845.0544708964298</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="16">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>125</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="4">
         <v>47865.285713367099</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="4">
         <v>52563.746496310698</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>9507.1703355023001</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="16">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>126</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="4">
         <v>34078.526320688798</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="4">
         <v>40696.002991366302</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>9526.5808601894405</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E129" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="16">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>127</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="4">
         <v>5378.8372446248104</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="4">
         <v>94384.500880630396</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>3355.6125666697799</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E130" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="16">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>128</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="4">
         <v>21953.977951205401</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="4">
         <v>55862.255772472803</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>1472.6499639757201</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E131" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>129</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="4">
         <v>94301.563780393801</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="4">
         <v>29458.036976041301</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="4">
         <v>1822.9846432025599</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E132" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="16">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>130</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="4">
         <v>16551.080199719901</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="4">
         <v>95488.795572585106</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="4">
         <v>5065.1980878703998</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="16">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>131</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="4">
         <v>19903.676282377601</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="4">
         <v>13075.967389528199</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="4">
         <v>5150.3004332562296</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="16">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>132</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="4">
         <v>26997.578145715401</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="4">
         <v>26754.067541037199</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="4">
         <v>8587.8019806369393</v>
       </c>
-      <c r="E135" s="4">
+      <c r="E135" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="16">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>133</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="4">
         <v>23143.0072880644</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="4">
         <v>19507.034555484199</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136" s="4">
         <v>2216.3588389133201</v>
       </c>
-      <c r="E136" s="4">
+      <c r="E136" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="16">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>134</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="4">
         <v>96920.300563772194</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="4">
         <v>17906.840760772098</v>
       </c>
-      <c r="D137" s="5">
+      <c r="D137" s="4">
         <v>4435.7947920476099</v>
       </c>
-      <c r="E137" s="4">
+      <c r="E137" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="16">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>135</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="4">
         <v>99186.897854191702</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="4">
         <v>74360.068673786198</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="4">
         <v>4781.3548568477599</v>
       </c>
-      <c r="E138" s="4">
+      <c r="E138" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>136</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="4">
         <v>1476.6305109146101</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="4">
         <v>62035.439871183298</v>
       </c>
-      <c r="D139" s="5">
+      <c r="D139" s="4">
         <v>6772.9231875699597</v>
       </c>
-      <c r="E139" s="4">
+      <c r="E139" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="16">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>137</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="4">
         <v>24641.025745287199</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="4">
         <v>41360.925975843398</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140" s="4">
         <v>6177.1565992341302</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="16">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>138</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="4">
         <v>69060.920168407902</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="4">
         <v>68437.678415006405</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141" s="4">
         <v>1987.4848288153501</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E141" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="16">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>139</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="4">
         <v>88095.620927796597</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="4">
         <v>11736.575665384</v>
       </c>
-      <c r="D142" s="5">
+      <c r="D142" s="4">
         <v>3848.6219718703701</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="16">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>140</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="4">
         <v>2959.7637311220401</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="4">
         <v>54815.731177126203</v>
       </c>
-      <c r="D143" s="5">
+      <c r="D143" s="4">
         <v>4809.8318104958198</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E143" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="16">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>141</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="4">
         <v>92983.809469584798</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="4">
         <v>60814.004858644599</v>
       </c>
-      <c r="D144" s="5">
+      <c r="D144" s="4">
         <v>5257.9795097843698</v>
       </c>
-      <c r="E144" s="4">
+      <c r="E144" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="16">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>142</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="4">
         <v>20241.6999529532</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="4">
         <v>87369.408495401003</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="4">
         <v>6846.6643290903503</v>
       </c>
-      <c r="E145" s="4">
+      <c r="E145" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="16">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>143</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="4">
         <v>53303.876959833702</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="4">
         <v>30687.6042477427</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="4">
         <v>2201.6274868857199</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="16">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>144</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="4">
         <v>37473.259549299903</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="4">
         <v>12389.2692365824</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="4">
         <v>4634.8526813444096</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>145</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="4">
         <v>40218.989171244</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="4">
         <v>96011.572791733604</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="4">
         <v>3667.54575843463</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="16">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>146</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="4">
         <v>21834.173703827601</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="4">
         <v>31480.0924965298</v>
       </c>
-      <c r="D149" s="5">
+      <c r="D149" s="4">
         <v>9626.9219254358304</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="16">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>147</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="4">
         <v>25548.057196670801</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="4">
         <v>5512.2010953401596</v>
       </c>
-      <c r="D150" s="5">
+      <c r="D150" s="4">
         <v>6243.1616282232699</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E150" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="16">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>148</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="4">
         <v>34670.540891713397</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="4">
         <v>71064.476828101499</v>
       </c>
-      <c r="D151" s="5">
+      <c r="D151" s="4">
         <v>2891.5967101727701</v>
       </c>
-      <c r="E151" s="4">
+      <c r="E151" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="16">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>149</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="4">
         <v>25859.468210518698</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="4">
         <v>68211.909654916497</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="4">
         <v>8253.9698583586105</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="16">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>150</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="4">
         <v>9523.9734250353195</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="4">
         <v>55061.8249472315</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>6392.56354544654</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="16">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>151</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="4">
         <v>39157.886800273503</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="4">
         <v>35743.1052009052</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>5266.55136834103</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E154" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="16">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>152</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="4">
         <v>406.49155269239998</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="4">
         <v>12692.620352420499</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>4458.7382647187997</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="16">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>153</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="4">
         <v>75724.745839676005</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="4">
         <v>6665.2857697026102</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>9390.2817537623796</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E156" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>154</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="4">
         <v>50905.966443772799</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="4">
         <v>87113.153749736302</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>751.67424969653098</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E157" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="16">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>155</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="4">
         <v>31507.653976199501</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="4">
         <v>97024.554472486401</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>6371.0745660111797</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E158" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="16">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>156</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="4">
         <v>48630.872502127299</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="4">
         <v>79622.374841634301</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>7176.5311151333499</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="16">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>157</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="4">
         <v>2969.1010655195701</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="4">
         <v>42260.961807735097</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>9593.5428835778603</v>
       </c>
-      <c r="E160" s="4">
+      <c r="E160" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="16">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>158</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="4">
         <v>19400.207182513601</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="4">
         <v>67404.366659297506</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>2077.6552541647602</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E161" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="16">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>159</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="4">
         <v>71998.123620180602</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="4">
         <v>91015.2320204594</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>8416.9191058367505</v>
       </c>
-      <c r="E162" s="4">
+      <c r="E162" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="16">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>160</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="4">
         <v>64420.221431575897</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="4">
         <v>64125.826084461201</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>5321.0606371393196</v>
       </c>
-      <c r="E163" s="4">
+      <c r="E163" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="16">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>161</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="4">
         <v>93293.728935526597</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="4">
         <v>67328.270199871593</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>6613.4761664877497</v>
       </c>
-      <c r="E164" s="4">
+      <c r="E164" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="16">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>162</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>13020.072543804399</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="4">
         <v>66713.275481804303</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>5993.3042833735499</v>
       </c>
-      <c r="E165" s="4">
+      <c r="E165" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="16">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>163</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>12712.8372282571</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="4">
         <v>53865.145104756397</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>4887.5463079540896</v>
       </c>
-      <c r="E166" s="4">
+      <c r="E166" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="16">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>164</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>61434.822736403097</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="4">
         <v>79512.673816695096</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>7362.6960408347704</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="16">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>165</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>57399.417007057396</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="4">
         <v>8108.3230495456401</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>4822.3398085579202</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="16">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>166</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>90959.623303686603</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="4">
         <v>80891.8083125556</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>5383.0765532157402</v>
       </c>
-      <c r="E169" s="4">
+      <c r="E169" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="16">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>167</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>57743.593388506997</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="4">
         <v>40267.5356374482</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>1812.3433358576401</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="16">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>168</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>51880.0296442912</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="4">
         <v>51866.706613846</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>2868.80320477435</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="16">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>169</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>5355.87342429619</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="4">
         <v>42648.170412583197</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>6791.1333716243598</v>
       </c>
-      <c r="E172" s="4">
+      <c r="E172" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="16">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>170</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>48315.134971911801</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="4">
         <v>64174.4013398846</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>4231.5561526745796</v>
       </c>
-      <c r="E173" s="4">
+      <c r="E173" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="16">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>171</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>48611.040241098701</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="4">
         <v>46509.254113448798</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>1534.42098323922</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="16">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>172</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>16443.465186879101</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="4">
         <v>98754.631962869302</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>1949.9619769546</v>
       </c>
-      <c r="E175" s="4">
+      <c r="E175" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="16">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>173</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>23240.641015012399</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="4">
         <v>67282.809324430302</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>3935.7322044994598</v>
       </c>
-      <c r="E176" s="4">
+      <c r="E176" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="16">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>174</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>55636.183379927003</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="4">
         <v>75135.502886325907</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>6611.0807361175102</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="16">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>175</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>74854.093121853206</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="4">
         <v>61225.616648961302</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="4">
         <v>9025.6126191907406</v>
       </c>
-      <c r="E178" s="4">
+      <c r="E178" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="16">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>176</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>28909.485734789101</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="4">
         <v>60754.756319910797</v>
       </c>
-      <c r="D179" s="5">
+      <c r="D179" s="4">
         <v>1811.0606150585099</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="16">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>177</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>75314.314239054394</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="4">
         <v>81275.697052436502</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="4">
         <v>4756.9252333303302</v>
       </c>
-      <c r="E180" s="4">
+      <c r="E180" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="16">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>178</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>89812.0776397562</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="4">
         <v>15796.7618922574</v>
       </c>
-      <c r="D181" s="5">
+      <c r="D181" s="4">
         <v>6143.1339254089698</v>
       </c>
-      <c r="E181" s="4">
+      <c r="E181" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="16">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>179</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>42261.360262642404</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="4">
         <v>5529.5200636558102</v>
       </c>
-      <c r="D182" s="5">
+      <c r="D182" s="4">
         <v>9765.8613062509503</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="16">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>180</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>12122.4439253941</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="4">
         <v>66304.039094721404</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D183" s="4">
         <v>3518.3860068315398</v>
       </c>
-      <c r="E183" s="4">
+      <c r="E183" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="16">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>181</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>64352.577778270002</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="4">
         <v>56211.877399052202</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="4">
         <v>5329.4693527177997</v>
       </c>
-      <c r="E184" s="4">
+      <c r="E184" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="16">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>182</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>12376.0686220607</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="4">
         <v>72197.364506869504</v>
       </c>
-      <c r="D185" s="5">
+      <c r="D185" s="4">
         <v>9759.0066279386101</v>
       </c>
-      <c r="E185" s="4">
+      <c r="E185" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="16">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <v>183</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>58893.535354769701</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="4">
         <v>816.91106550029201</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="4">
         <v>4642.4495198705199</v>
       </c>
-      <c r="E186" s="4">
+      <c r="E186" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="16">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>184</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>1882.04189718826</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="4">
         <v>52353.788348137597</v>
       </c>
-      <c r="D187" s="5">
+      <c r="D187" s="4">
         <v>5488.4029498776599</v>
       </c>
-      <c r="E187" s="4">
+      <c r="E187" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="16">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>185</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>24846.713972629099</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="4">
         <v>13423.020144281099</v>
       </c>
-      <c r="D188" s="5">
+      <c r="D188" s="4">
         <v>1492.5698516211701</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="16">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <v>186</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>80796.307694897405</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="4">
         <v>50156.279523161298</v>
       </c>
-      <c r="D189" s="5">
+      <c r="D189" s="4">
         <v>9270.5146505468892</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="16">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <v>187</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>78120.961799269397</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="4">
         <v>72875.154934606893</v>
       </c>
-      <c r="D190" s="5">
+      <c r="D190" s="4">
         <v>9168.7317634949904</v>
       </c>
-      <c r="E190" s="4">
+      <c r="E190" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="16">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <v>188</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>22946.424904488598</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="4">
         <v>50574.530062386497</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="4">
         <v>4727.0637462212599</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="16">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <v>189</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>51744.075930394101</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="4">
         <v>9994.0911415872997</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="4">
         <v>3798.5275602916299</v>
       </c>
-      <c r="E192" s="4">
+      <c r="E192" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="16">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <v>190</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>38903.056044682497</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="4">
         <v>39917.095222102398</v>
       </c>
-      <c r="D193" s="5">
+      <c r="D193" s="4">
         <v>3912.8455003978402</v>
       </c>
-      <c r="E193" s="4">
+      <c r="E193" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="16">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <v>191</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>66212.898385855995</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="4">
         <v>65927.823988996897</v>
       </c>
-      <c r="D194" s="5">
+      <c r="D194" s="4">
         <v>5265.24294034593</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="16">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <v>192</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>41107.8160849825</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="4">
         <v>92713.135301672693</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D195" s="4">
         <v>8598.1478819936801</v>
       </c>
-      <c r="E195" s="4">
+      <c r="E195" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="16">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <v>193</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>70368.514778382596</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="4">
         <v>13362.7915022046</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="4">
         <v>5930.3045725871998</v>
       </c>
-      <c r="E196" s="4">
+      <c r="E196" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="16">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>194</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>32919.7510881134</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="4">
         <v>41687.169851254701</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="4">
         <v>791.23020941763298</v>
       </c>
-      <c r="E197" s="4">
+      <c r="E197" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="16">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <v>195</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>28754.851779225901</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="4">
         <v>86940.6807138851</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>1365.2194481707099</v>
       </c>
-      <c r="E198" s="4">
+      <c r="E198" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="16">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <v>196</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>42192.208889203197</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="4">
         <v>45178.583150852603</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="4">
         <v>2558.98454320158</v>
       </c>
-      <c r="E199" s="4">
+      <c r="E199" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="16">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <v>197</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>39477.613902384903</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="4">
         <v>24667.1946098144</v>
       </c>
-      <c r="D200" s="5">
+      <c r="D200" s="4">
         <v>5731.1543505247701</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="16">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>198</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>22477.813704706801</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="4">
         <v>41814.0738567886</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="4">
         <v>3437.2773298037</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="16">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <v>199</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="4">
         <v>78800.664959919493</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="4">
         <v>13830.5144422091</v>
       </c>
-      <c r="D202" s="5">
+      <c r="D202" s="4">
         <v>5874.8903309047</v>
       </c>
-      <c r="E202" s="4">
+      <c r="E202" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="16">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <v>200</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>74266.918603753904</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="4">
         <v>13914.851691416099</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="4">
         <v>5150.7742808667899</v>
       </c>
-      <c r="E203" s="4">
+      <c r="E203" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="16">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>201</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>75914.519837442494</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="4">
         <v>38312.195369810601</v>
       </c>
-      <c r="D204" s="5">
+      <c r="D204" s="4">
         <v>9246.1345161124991</v>
       </c>
-      <c r="E204" s="4">
+      <c r="E204" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="16">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <v>202</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>96410.817740864804</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="4">
         <v>45690.969022908699</v>
       </c>
-      <c r="D205" s="5">
+      <c r="D205" s="4">
         <v>4122.1489469323797</v>
       </c>
-      <c r="E205" s="4">
+      <c r="E205" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="16">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <v>203</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>77935.310298182696</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="4">
         <v>31116.361735749</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D206" s="4">
         <v>871.01610237227897</v>
       </c>
-      <c r="E206" s="4">
+      <c r="E206" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="16">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <v>204</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>11317.985983414501</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="4">
         <v>97582.587377248303</v>
       </c>
-      <c r="D207" s="5">
+      <c r="D207" s="4">
         <v>8291.1024109752598</v>
       </c>
-      <c r="E207" s="4">
+      <c r="E207" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="16">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <v>205</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>40406.150241830903</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="4">
         <v>42602.550220950303</v>
       </c>
-      <c r="D208" s="5">
+      <c r="D208" s="4">
         <v>822.47853615085296</v>
       </c>
-      <c r="E208" s="4">
+      <c r="E208" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="16">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <v>206</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>19666.489602557202</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="4">
         <v>11056.0345536479</v>
       </c>
-      <c r="D209" s="5">
+      <c r="D209" s="4">
         <v>9842.6324813212505</v>
       </c>
-      <c r="E209" s="4">
+      <c r="E209" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="16">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <v>207</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>62069.3248344842</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="4">
         <v>46590.754671812399</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="4">
         <v>3388.1125504551601</v>
       </c>
-      <c r="E210" s="4">
+      <c r="E210" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="16">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>208</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>24222.869204678602</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="4">
         <v>591.59153646375296</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="4">
         <v>4348.1425651292902</v>
       </c>
-      <c r="E211" s="4">
+      <c r="E211" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="16">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <v>209</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>20780.276259773302</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="4">
         <v>62873.7772840896</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="4">
         <v>592.42075127758403</v>
       </c>
-      <c r="E212" s="4">
+      <c r="E212" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="16">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>210</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>84330.434091128205</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="4">
         <v>84367.934543400799</v>
       </c>
-      <c r="D213" s="5">
+      <c r="D213" s="4">
         <v>5055.3094338164601</v>
       </c>
-      <c r="E213" s="4">
+      <c r="E213" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="16">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <v>211</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>67986.88414075</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="4">
         <v>50271.786058097401</v>
       </c>
-      <c r="D214" s="5">
+      <c r="D214" s="4">
         <v>9525.1979131722492</v>
       </c>
-      <c r="E214" s="4">
+      <c r="E214" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="16">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <v>212</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>90042.232118101398</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C215" s="4">
         <v>82683.177545053404</v>
       </c>
-      <c r="D215" s="5">
+      <c r="D215" s="4">
         <v>2106.3283088878002</v>
       </c>
-      <c r="E215" s="4">
+      <c r="E215" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="16">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <v>213</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>57733.1761809819</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="4">
         <v>80362.141044929594</v>
       </c>
-      <c r="D216" s="5">
+      <c r="D216" s="4">
         <v>6903.2493377123101</v>
       </c>
-      <c r="E216" s="4">
+      <c r="E216" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="16">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <v>214</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="4">
         <v>32948.077741469097</v>
       </c>
-      <c r="C217" s="5">
+      <c r="C217" s="4">
         <v>1484.85506543473</v>
       </c>
-      <c r="D217" s="5">
+      <c r="D217" s="4">
         <v>4815.4940721416197</v>
       </c>
-      <c r="E217" s="4">
+      <c r="E217" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="16">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <v>215</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="4">
         <v>46282.432457840099</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="4">
         <v>24274.9354923869</v>
       </c>
-      <c r="D218" s="5">
+      <c r="D218" s="4">
         <v>1914.7393792144501</v>
       </c>
-      <c r="E218" s="4">
+      <c r="E218" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="16">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>216</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="4">
         <v>81244.989770682296</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C219" s="4">
         <v>50019.322780540802</v>
       </c>
-      <c r="D219" s="5">
+      <c r="D219" s="4">
         <v>3903.2292546146</v>
       </c>
-      <c r="E219" s="4">
+      <c r="E219" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="16">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <v>217</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="4">
         <v>96879.211111506505</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="4">
         <v>23625.3885301113</v>
       </c>
-      <c r="D220" s="5">
+      <c r="D220" s="4">
         <v>7942.1168527481004</v>
       </c>
-      <c r="E220" s="4">
+      <c r="E220" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="16">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <v>218</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="4">
         <v>22327.665191233398</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C221" s="4">
         <v>73379.170149502694</v>
       </c>
-      <c r="D221" s="5">
+      <c r="D221" s="4">
         <v>7332.3742171013801</v>
       </c>
-      <c r="E221" s="4">
+      <c r="E221" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="16">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <v>219</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="4">
         <v>80268.753537147204</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="4">
         <v>45220.356425349099</v>
       </c>
-      <c r="D222" s="5">
+      <c r="D222" s="4">
         <v>597.16971016419996</v>
       </c>
-      <c r="E222" s="4">
+      <c r="E222" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="16">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <v>220</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="4">
         <v>57887.419777272997</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="4">
         <v>19556.323572236601</v>
       </c>
-      <c r="D223" s="5">
+      <c r="D223" s="4">
         <v>5505.3921219272497</v>
       </c>
-      <c r="E223" s="4">
+      <c r="E223" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="16">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <v>221</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>59683.745135867197</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="4">
         <v>71771.336003471893</v>
       </c>
-      <c r="D224" s="5">
+      <c r="D224" s="4">
         <v>3048.0623080190499</v>
       </c>
-      <c r="E224" s="4">
+      <c r="E224" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="16">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <v>222</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="4">
         <v>26842.644279417302</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C225" s="4">
         <v>57779.425900943301</v>
       </c>
-      <c r="D225" s="5">
+      <c r="D225" s="4">
         <v>7803.9081115794497</v>
       </c>
-      <c r="E225" s="4">
+      <c r="E225" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="16">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>223</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <v>83406.361901924101</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="4">
         <v>31002.2637196625</v>
       </c>
-      <c r="D226" s="5">
+      <c r="D226" s="4">
         <v>5304.7552500191796</v>
       </c>
-      <c r="E226" s="4">
+      <c r="E226" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="16">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <v>224</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <v>72690.664949170605</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C227" s="4">
         <v>98974.300827535801</v>
       </c>
-      <c r="D227" s="5">
+      <c r="D227" s="4">
         <v>5004.4907244504902</v>
       </c>
-      <c r="E227" s="4">
+      <c r="E227" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="16">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <v>225</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="4">
         <v>34399.019995027702</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="4">
         <v>66253.671076878105</v>
       </c>
-      <c r="D228" s="5">
+      <c r="D228" s="4">
         <v>5653.3038906616102</v>
       </c>
-      <c r="E228" s="4">
+      <c r="E228" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="16">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <v>226</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="4">
         <v>8116.9603334881804</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="4">
         <v>64559.155792037898</v>
       </c>
-      <c r="D229" s="5">
+      <c r="D229" s="4">
         <v>6254.4141780969703</v>
       </c>
-      <c r="E229" s="4">
+      <c r="E229" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="16">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <v>227</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <v>32695.2941748105</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="4">
         <v>54845.693076176198</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="4">
         <v>3099.8572302054599</v>
       </c>
-      <c r="E230" s="4">
+      <c r="E230" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="16">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <v>228</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <v>68030.852213543796</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="4">
         <v>2267.4179152462998</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="4">
         <v>2525.4958493572599</v>
       </c>
-      <c r="E231" s="4">
+      <c r="E231" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="16">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <v>229</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="4">
         <v>34373.379789211802</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="4">
         <v>68125.792067351402</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="4">
         <v>9471.1764739798291</v>
       </c>
-      <c r="E232" s="4">
+      <c r="E232" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="16">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>230</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="4">
         <v>36505.554082347197</v>
       </c>
-      <c r="C233" s="5">
+      <c r="C233" s="4">
         <v>63280.9596687581</v>
       </c>
-      <c r="D233" s="5">
+      <c r="D233" s="4">
         <v>6852.7267892302698</v>
       </c>
-      <c r="E233" s="4">
+      <c r="E233" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="16">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <v>231</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="4">
         <v>55874.099615783802</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="4">
         <v>65143.360341756001</v>
       </c>
-      <c r="D234" s="5">
+      <c r="D234" s="4">
         <v>6705.8281336308301</v>
       </c>
-      <c r="E234" s="4">
+      <c r="E234" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="16">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <v>232</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="4">
         <v>11783.9313800911</v>
       </c>
-      <c r="C235" s="5">
+      <c r="C235" s="4">
         <v>11515.5263936056</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="4">
         <v>4840.4101815926997</v>
       </c>
-      <c r="E235" s="4">
+      <c r="E235" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="16">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <v>233</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="4">
         <v>92320.171542123804</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="4">
         <v>44654.7402552278</v>
       </c>
-      <c r="D236" s="5">
+      <c r="D236" s="4">
         <v>7915.41266590125</v>
       </c>
-      <c r="E236" s="4">
+      <c r="E236" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="16">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <v>234</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="4">
         <v>22266.286267134699</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237" s="4">
         <v>52391.963649721198</v>
       </c>
-      <c r="D237" s="5">
+      <c r="D237" s="4">
         <v>6053.2697415319599</v>
       </c>
-      <c r="E237" s="4">
+      <c r="E237" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="16">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <v>235</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="4">
         <v>19379.637911940201</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="4">
         <v>73139.411387403103</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="4">
         <v>4127.8447561019502</v>
       </c>
-      <c r="E238" s="4">
+      <c r="E238" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="16">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <v>236</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="4">
         <v>23837.1810877063</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="4">
         <v>21642.348436392102</v>
       </c>
-      <c r="D239" s="5">
+      <c r="D239" s="4">
         <v>968.52786151190003</v>
       </c>
-      <c r="E239" s="4">
+      <c r="E239" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="16">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <v>237</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>11294.2907044658</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="4">
         <v>74262.768460451902</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="4">
         <v>6375.7866796363196</v>
       </c>
-      <c r="E240" s="4">
+      <c r="E240" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="16">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <v>238</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="4">
         <v>20308.943342577699</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="4">
         <v>53289.137919078203</v>
       </c>
-      <c r="D241" s="5">
+      <c r="D241" s="4">
         <v>6988.5926903238496</v>
       </c>
-      <c r="E241" s="4">
+      <c r="E241" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="16">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <v>239</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <v>48994.5392210887</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="4">
         <v>94087.220500109106</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="4">
         <v>455.03004975154101</v>
       </c>
-      <c r="E242" s="4">
+      <c r="E242" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="16">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>240</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <v>81758.750557440202</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="4">
         <v>25855.447798895199</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>4988.3299070088997</v>
       </c>
-      <c r="E243" s="4">
+      <c r="E243" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="16">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <v>241</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="4">
         <v>12615.404556732999</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244" s="4">
         <v>94783.397514975906</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>8163.2331594439102</v>
       </c>
-      <c r="E244" s="4">
+      <c r="E244" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="16">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <v>242</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>61677.322833290797</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="4">
         <v>98312.186954448407</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>6689.0747665772797</v>
       </c>
-      <c r="E245" s="4">
+      <c r="E245" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="16">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <v>243</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <v>55301.017744169098</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="4">
         <v>38898.810646717</v>
       </c>
-      <c r="D246" s="5">
+      <c r="D246" s="4">
         <v>4583.6768248841699</v>
       </c>
-      <c r="E246" s="4">
+      <c r="E246" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="16">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <v>244</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <v>70084.1554654348</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="4">
         <v>82580.751102517504</v>
       </c>
-      <c r="D247" s="5">
+      <c r="D247" s="4">
         <v>9966.0173316032997</v>
       </c>
-      <c r="E247" s="4">
+      <c r="E247" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="16">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <v>245</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="4">
         <v>4818.6129934512501</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="4">
         <v>79192.344183632697</v>
       </c>
-      <c r="D248" s="5">
+      <c r="D248" s="4">
         <v>6102.6884535630497</v>
       </c>
-      <c r="E248" s="4">
+      <c r="E248" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="16">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <v>246</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="4">
         <v>75671.408999142601</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="4">
         <v>84853.046055439307</v>
       </c>
-      <c r="D249" s="5">
+      <c r="D249" s="4">
         <v>753.62295309536705</v>
       </c>
-      <c r="E249" s="4">
+      <c r="E249" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <v>247</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="4">
         <v>76993.363971169994</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="4">
         <v>76037.258199593896</v>
       </c>
-      <c r="D250" s="5">
+      <c r="D250" s="4">
         <v>2215.1241051083798</v>
       </c>
-      <c r="E250" s="4">
+      <c r="E250" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="16">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <v>248</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="4">
         <v>29474.781061317899</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="4">
         <v>34659.301231088299</v>
       </c>
-      <c r="D251" s="5">
+      <c r="D251" s="4">
         <v>2282.4495183352401</v>
       </c>
-      <c r="E251" s="4">
+      <c r="E251" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="16">
-      <c r="A252" s="3">
+      <c r="A252" s="2">
         <v>249</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="4">
         <v>69462.283164136301</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="4">
         <v>42514.4484677824</v>
       </c>
-      <c r="D252" s="5">
+      <c r="D252" s="4">
         <v>8911.8301384304395</v>
       </c>
-      <c r="E252" s="4">
+      <c r="E252" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="16">
-      <c r="A253" s="3">
+      <c r="A253" s="2">
         <v>250</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="4">
         <v>49453.639068436503</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" s="4">
         <v>35125.890483822302</v>
       </c>
-      <c r="D253" s="5">
+      <c r="D253" s="4">
         <v>4595.6029755644404</v>
       </c>
-      <c r="E253" s="4">
+      <c r="E253" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="16">
-      <c r="A254" s="3">
+      <c r="A254" s="2">
         <v>251</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="4">
         <v>20323.568242966299</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254" s="4">
         <v>46498.177131716897</v>
       </c>
-      <c r="D254" s="5">
+      <c r="D254" s="4">
         <v>4933.6757926881801</v>
       </c>
-      <c r="E254" s="4">
+      <c r="E254" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="16">
-      <c r="A255" s="3">
+      <c r="A255" s="2">
         <v>252</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="4">
         <v>7816.3113409965399</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255" s="4">
         <v>42356.162204885899</v>
       </c>
-      <c r="D255" s="5">
+      <c r="D255" s="4">
         <v>3036.6210106939102</v>
       </c>
-      <c r="E255" s="4">
+      <c r="E255" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="16">
-      <c r="A256" s="3">
+      <c r="A256" s="2">
         <v>253</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="4">
         <v>61465.9948596373</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="4">
         <v>30403.118481579</v>
       </c>
-      <c r="D256" s="5">
+      <c r="D256" s="4">
         <v>9687.6978499575107</v>
       </c>
-      <c r="E256" s="4">
+      <c r="E256" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="16">
-      <c r="A257" s="3">
+      <c r="A257" s="2">
         <v>254</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="4">
         <v>84765.332676189704</v>
       </c>
-      <c r="C257" s="5">
+      <c r="C257" s="4">
         <v>92537.804579536198</v>
       </c>
-      <c r="D257" s="5">
+      <c r="D257" s="4">
         <v>9649.0101982177202</v>
       </c>
-      <c r="E257" s="4">
+      <c r="E257" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="16">
-      <c r="A258" s="3">
+      <c r="A258" s="2">
         <v>255</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="4">
         <v>41660.016634176303</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258" s="4">
         <v>67979.104384883001</v>
       </c>
-      <c r="D258" s="5">
+      <c r="D258" s="4">
         <v>5481.7635331838101</v>
       </c>
-      <c r="E258" s="4">
+      <c r="E258" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="16">
-      <c r="A259" s="3">
+      <c r="A259" s="2">
         <v>256</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="4">
         <v>3010.4435171069899</v>
       </c>
-      <c r="C259" s="5">
+      <c r="C259" s="4">
         <v>72303.211498136705</v>
       </c>
-      <c r="D259" s="5">
+      <c r="D259" s="4">
         <v>2789.5046980165398</v>
       </c>
-      <c r="E259" s="4">
+      <c r="E259" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="16">
-      <c r="A260" s="3">
+      <c r="A260" s="2">
         <v>257</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <v>12147.778968832699</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260" s="4">
         <v>89030.793955051398</v>
       </c>
-      <c r="D260" s="5">
+      <c r="D260" s="4">
         <v>1998.82569955299</v>
       </c>
-      <c r="E260" s="4">
+      <c r="E260" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="16">
-      <c r="A261" s="3">
+      <c r="A261" s="2">
         <v>258</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <v>44498.037230718801</v>
       </c>
-      <c r="C261" s="5">
+      <c r="C261" s="4">
         <v>39082.770846962499</v>
       </c>
-      <c r="D261" s="5">
+      <c r="D261" s="4">
         <v>429.44261309486097</v>
       </c>
-      <c r="E261" s="4">
+      <c r="E261" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="16">
-      <c r="A262" s="3">
+      <c r="A262" s="2">
         <v>259</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="4">
         <v>3803.0300051335198</v>
       </c>
-      <c r="C262" s="5">
+      <c r="C262" s="4">
         <v>71867.4259784272</v>
       </c>
-      <c r="D262" s="5">
+      <c r="D262" s="4">
         <v>5767.08931166199</v>
       </c>
-      <c r="E262" s="4">
+      <c r="E262" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="16">
-      <c r="A263" s="3">
+      <c r="A263" s="2">
         <v>260</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263" s="4">
         <v>81.170756010784302</v>
       </c>
-      <c r="C263" s="5">
+      <c r="C263" s="4">
         <v>57233.960150519699</v>
       </c>
-      <c r="D263" s="5">
+      <c r="D263" s="4">
         <v>9167.5723390677504</v>
       </c>
-      <c r="E263" s="4">
+      <c r="E263" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="16">
-      <c r="A264" s="3">
+      <c r="A264" s="2">
         <v>261</v>
       </c>
-      <c r="B264" s="5">
+      <c r="B264" s="4">
         <v>47832.010979148901</v>
       </c>
-      <c r="C264" s="5">
+      <c r="C264" s="4">
         <v>18059.311438918601</v>
       </c>
-      <c r="D264" s="5">
+      <c r="D264" s="4">
         <v>1702.0523112743199</v>
       </c>
-      <c r="E264" s="4">
+      <c r="E264" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="16">
-      <c r="A265" s="3">
+      <c r="A265" s="2">
         <v>262</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265" s="4">
         <v>65305.813254426401</v>
       </c>
-      <c r="C265" s="5">
+      <c r="C265" s="4">
         <v>29357.584961695102</v>
       </c>
-      <c r="D265" s="5">
+      <c r="D265" s="4">
         <v>7090.9033499726402</v>
       </c>
-      <c r="E265" s="4">
+      <c r="E265" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="16">
-      <c r="A266" s="3">
+      <c r="A266" s="2">
         <v>263</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B266" s="4">
         <v>93846.363682154799</v>
       </c>
-      <c r="C266" s="5">
+      <c r="C266" s="4">
         <v>32330.951699863199</v>
       </c>
-      <c r="D266" s="5">
+      <c r="D266" s="4">
         <v>1659.0961776989</v>
       </c>
-      <c r="E266" s="4">
+      <c r="E266" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="16">
-      <c r="A267" s="3">
+      <c r="A267" s="2">
         <v>264</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267" s="4">
         <v>1909.7335967122101</v>
       </c>
-      <c r="C267" s="5">
+      <c r="C267" s="4">
         <v>38390.743213011599</v>
       </c>
-      <c r="D267" s="5">
+      <c r="D267" s="4">
         <v>9218.7356293428293</v>
       </c>
-      <c r="E267" s="4">
+      <c r="E267" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="16">
-      <c r="A268" s="3">
+      <c r="A268" s="2">
         <v>265</v>
       </c>
-      <c r="B268" s="5">
+      <c r="B268" s="4">
         <v>55300.946099595298</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" s="4">
         <v>5643.4170458602403</v>
       </c>
-      <c r="D268" s="5">
+      <c r="D268" s="4">
         <v>6318.6330388853303</v>
       </c>
-      <c r="E268" s="4">
+      <c r="E268" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="16">
-      <c r="A269" s="3">
+      <c r="A269" s="2">
         <v>266</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269" s="4">
         <v>12661.3566730374</v>
       </c>
-      <c r="C269" s="5">
+      <c r="C269" s="4">
         <v>36676.620919239802</v>
       </c>
-      <c r="D269" s="5">
+      <c r="D269" s="4">
         <v>5895.1921907303904</v>
       </c>
-      <c r="E269" s="4">
+      <c r="E269" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="16">
-      <c r="A270" s="3">
+      <c r="A270" s="2">
         <v>267</v>
       </c>
-      <c r="B270" s="5">
+      <c r="B270" s="4">
         <v>37818.758700589999</v>
       </c>
-      <c r="C270" s="5">
+      <c r="C270" s="4">
         <v>65391.548831086402</v>
       </c>
-      <c r="D270" s="5">
+      <c r="D270" s="4">
         <v>834.13068549927402</v>
       </c>
-      <c r="E270" s="4">
+      <c r="E270" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="16">
-      <c r="A271" s="3">
+      <c r="A271" s="2">
         <v>268</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271" s="4">
         <v>42839.376770700699</v>
       </c>
-      <c r="C271" s="5">
+      <c r="C271" s="4">
         <v>28758.756585055398</v>
       </c>
-      <c r="D271" s="5">
+      <c r="D271" s="4">
         <v>7423.9416875048501</v>
       </c>
-      <c r="E271" s="4">
+      <c r="E271" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="16">
-      <c r="A272" s="3">
+      <c r="A272" s="2">
         <v>269</v>
       </c>
-      <c r="B272" s="5">
+      <c r="B272" s="4">
         <v>63434.168496898303</v>
       </c>
-      <c r="C272" s="5">
+      <c r="C272" s="4">
         <v>68682.194777615907</v>
       </c>
-      <c r="D272" s="5">
+      <c r="D272" s="4">
         <v>868.73892971101895</v>
       </c>
-      <c r="E272" s="4">
+      <c r="E272" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="16">
-      <c r="A273" s="3">
+      <c r="A273" s="2">
         <v>270</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>18982.9246862857</v>
       </c>
-      <c r="C273" s="5">
+      <c r="C273" s="4">
         <v>37086.415333043398</v>
       </c>
-      <c r="D273" s="5">
+      <c r="D273" s="4">
         <v>4984.2897427333</v>
       </c>
-      <c r="E273" s="4">
+      <c r="E273" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="16">
-      <c r="A274" s="3">
+      <c r="A274" s="2">
         <v>271</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B274" s="4">
         <v>9721.9692420690208</v>
       </c>
-      <c r="C274" s="5">
+      <c r="C274" s="4">
         <v>66412.875916646997</v>
       </c>
-      <c r="D274" s="5">
+      <c r="D274" s="4">
         <v>2487.8717376716199</v>
       </c>
-      <c r="E274" s="4">
+      <c r="E274" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="16">
-      <c r="A275" s="3">
+      <c r="A275" s="2">
         <v>272</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <v>98083.659349950205</v>
       </c>
-      <c r="C275" s="5">
+      <c r="C275" s="4">
         <v>40558.429306344799</v>
       </c>
-      <c r="D275" s="5">
+      <c r="D275" s="4">
         <v>2705.9161266258998</v>
       </c>
-      <c r="E275" s="4">
+      <c r="E275" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="16">
-      <c r="A276" s="3">
+      <c r="A276" s="2">
         <v>273</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <v>47247.554896882102</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="4">
         <v>28496.011863522799</v>
       </c>
-      <c r="D276" s="5">
+      <c r="D276" s="4">
         <v>4978.0407536611401</v>
       </c>
-      <c r="E276" s="4">
+      <c r="E276" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="16">
-      <c r="A277" s="3">
+      <c r="A277" s="2">
         <v>274</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <v>72027.393048803206</v>
       </c>
-      <c r="C277" s="5">
+      <c r="C277" s="4">
         <v>41299.275803236902</v>
       </c>
-      <c r="D277" s="5">
+      <c r="D277" s="4">
         <v>9027.0399565785992</v>
       </c>
-      <c r="E277" s="4">
+      <c r="E277" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="16">
-      <c r="A278" s="3">
+      <c r="A278" s="2">
         <v>275</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="4">
         <v>1749.46623586585</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="4">
         <v>54054.883771567504</v>
       </c>
-      <c r="D278" s="5">
+      <c r="D278" s="4">
         <v>8617.4742188710698</v>
       </c>
-      <c r="E278" s="4">
+      <c r="E278" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="16">
-      <c r="A279" s="3">
+      <c r="A279" s="2">
         <v>276</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279" s="4">
         <v>77111.443698501898</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="4">
         <v>30904.414251509199</v>
       </c>
-      <c r="D279" s="5">
+      <c r="D279" s="4">
         <v>9628.0805575653103</v>
       </c>
-      <c r="E279" s="4">
+      <c r="E279" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="16">
-      <c r="A280" s="3">
+      <c r="A280" s="2">
         <v>277</v>
       </c>
-      <c r="B280" s="5">
+      <c r="B280" s="4">
         <v>35437.378289392298</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="4">
         <v>85409.317859727307</v>
       </c>
-      <c r="D280" s="5">
+      <c r="D280" s="4">
         <v>2802.264103086</v>
       </c>
-      <c r="E280" s="4">
+      <c r="E280" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="16">
-      <c r="A281" s="3">
+      <c r="A281" s="2">
         <v>278</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281" s="4">
         <v>27326.014366956901</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="4">
         <v>7232.0914045586997</v>
       </c>
-      <c r="D281" s="5">
+      <c r="D281" s="4">
         <v>7152.0215613383998</v>
       </c>
-      <c r="E281" s="4">
+      <c r="E281" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="16">
-      <c r="A282" s="3">
+      <c r="A282" s="2">
         <v>279</v>
       </c>
-      <c r="B282" s="5">
+      <c r="B282" s="4">
         <v>81849.206925454899</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="4">
         <v>59133.2325438068</v>
       </c>
-      <c r="D282" s="5">
+      <c r="D282" s="4">
         <v>2658.18524675873</v>
       </c>
-      <c r="E282" s="4">
+      <c r="E282" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="16">
-      <c r="A283" s="3">
+      <c r="A283" s="2">
         <v>280</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283" s="4">
         <v>15426.5051054307</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="4">
         <v>79050.528190713507</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="4">
         <v>6342.5552009140001</v>
       </c>
-      <c r="E283" s="4">
+      <c r="E283" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="16">
-      <c r="A284" s="3">
+      <c r="A284" s="2">
         <v>281</v>
       </c>
-      <c r="B284" s="5">
+      <c r="B284" s="4">
         <v>28778.8009220491</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="4">
         <v>15253.3792945071</v>
       </c>
-      <c r="D284" s="5">
+      <c r="D284" s="4">
         <v>8331.8843876794708</v>
       </c>
-      <c r="E284" s="4">
+      <c r="E284" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="16">
-      <c r="A285" s="3">
+      <c r="A285" s="2">
         <v>282</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285" s="4">
         <v>87547.095277978093</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="4">
         <v>54849.054064353302</v>
       </c>
-      <c r="D285" s="5">
+      <c r="D285" s="4">
         <v>4567.3217086824698</v>
       </c>
-      <c r="E285" s="4">
+      <c r="E285" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="16">
-      <c r="A286" s="3">
+      <c r="A286" s="2">
         <v>283</v>
       </c>
-      <c r="B286" s="5">
+      <c r="B286" s="4">
         <v>10973.2213552791</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="4">
         <v>98994.303098661301</v>
       </c>
-      <c r="D286" s="5">
+      <c r="D286" s="4">
         <v>4207.1501375359403</v>
       </c>
-      <c r="E286" s="4">
+      <c r="E286" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="16">
-      <c r="A287" s="3">
+      <c r="A287" s="2">
         <v>284</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287" s="4">
         <v>84700.788168656698</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="4">
         <v>32370.881651419601</v>
       </c>
-      <c r="D287" s="5">
+      <c r="D287" s="4">
         <v>2831.1306945378801</v>
       </c>
-      <c r="E287" s="4">
+      <c r="E287" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="16">
-      <c r="A288" s="3">
+      <c r="A288" s="2">
         <v>285</v>
       </c>
-      <c r="B288" s="5">
+      <c r="B288" s="4">
         <v>1298.3754115884201</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="4">
         <v>3794.9362932142599</v>
       </c>
-      <c r="D288" s="5">
+      <c r="D288" s="4">
         <v>4224.1755271190596</v>
       </c>
-      <c r="E288" s="4">
+      <c r="E288" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="16">
-      <c r="A289" s="3">
+      <c r="A289" s="2">
         <v>286</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289" s="4">
         <v>84894.783540865494</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="4">
         <v>5551.5989671530697</v>
       </c>
-      <c r="D289" s="5">
+      <c r="D289" s="4">
         <v>6532.9448020478403</v>
       </c>
-      <c r="E289" s="4">
+      <c r="E289" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="16">
-      <c r="A290" s="3">
+      <c r="A290" s="2">
         <v>287</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="4">
         <v>85208.254211601801</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="4">
         <v>69275.426365319203</v>
       </c>
-      <c r="D290" s="5">
+      <c r="D290" s="4">
         <v>851.005443347305</v>
       </c>
-      <c r="E290" s="4">
+      <c r="E290" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="16">
-      <c r="A291" s="3">
+      <c r="A291" s="2">
         <v>288</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291" s="4">
         <v>5765.4528133186204</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="4">
         <v>64775.025882604103</v>
       </c>
-      <c r="D291" s="5">
+      <c r="D291" s="4">
         <v>4847.7005614539203</v>
       </c>
-      <c r="E291" s="4">
+      <c r="E291" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="16">
-      <c r="A292" s="3">
+      <c r="A292" s="2">
         <v>289</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <v>67298.397257874196</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="4">
         <v>80013.017193221094</v>
       </c>
-      <c r="D292" s="5">
+      <c r="D292" s="4">
         <v>869.90575385080103</v>
       </c>
-      <c r="E292" s="4">
+      <c r="E292" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="16">
-      <c r="A293" s="3">
+      <c r="A293" s="2">
         <v>290</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <v>18177.861304395599</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="4">
         <v>65412.141437960599</v>
       </c>
-      <c r="D293" s="5">
+      <c r="D293" s="4">
         <v>834.63354476097697</v>
       </c>
-      <c r="E293" s="4">
+      <c r="E293" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="16">
-      <c r="A294" s="3">
+      <c r="A294" s="2">
         <v>291</v>
       </c>
-      <c r="B294" s="5">
+      <c r="B294" s="4">
         <v>89731.241984361201</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C294" s="4">
         <v>62637.808393137297</v>
       </c>
-      <c r="D294" s="5">
+      <c r="D294" s="4">
         <v>9281.6286813913393</v>
       </c>
-      <c r="E294" s="4">
+      <c r="E294" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="16">
-      <c r="A295" s="3">
+      <c r="A295" s="2">
         <v>292</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295" s="4">
         <v>93218.470832152496</v>
       </c>
-      <c r="C295" s="5">
+      <c r="C295" s="4">
         <v>76188.670134642496</v>
       </c>
-      <c r="D295" s="5">
+      <c r="D295" s="4">
         <v>4665.5574419780896</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E295" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="16">
-      <c r="A296" s="3">
+      <c r="A296" s="2">
         <v>293</v>
       </c>
-      <c r="B296" s="5">
+      <c r="B296" s="4">
         <v>47540.657602211599</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="4">
         <v>86054.074536933302</v>
       </c>
-      <c r="D296" s="5">
+      <c r="D296" s="4">
         <v>4892.7760733936902</v>
       </c>
-      <c r="E296" s="4">
+      <c r="E296" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16">
-      <c r="A297" s="3">
+      <c r="A297" s="2">
         <v>294</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297" s="4">
         <v>92085.063571531093</v>
       </c>
-      <c r="C297" s="5">
+      <c r="C297" s="4">
         <v>94335.338801975799</v>
       </c>
-      <c r="D297" s="5">
+      <c r="D297" s="4">
         <v>8152.8580461015699</v>
       </c>
-      <c r="E297" s="4">
+      <c r="E297" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16">
-      <c r="A298" s="3">
+      <c r="A298" s="2">
         <v>295</v>
       </c>
-      <c r="B298" s="5">
+      <c r="B298" s="4">
         <v>70985.637956731603</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="4">
         <v>92800.412343351098</v>
       </c>
-      <c r="D298" s="5">
+      <c r="D298" s="4">
         <v>7920.1401022936898</v>
       </c>
-      <c r="E298" s="4">
+      <c r="E298" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16">
-      <c r="A299" s="3">
+      <c r="A299" s="2">
         <v>296</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="4">
         <v>42780.271174713998</v>
       </c>
-      <c r="C299" s="5">
+      <c r="C299" s="4">
         <v>34071.237576197898</v>
       </c>
-      <c r="D299" s="5">
+      <c r="D299" s="4">
         <v>2442.2071342399199</v>
       </c>
-      <c r="E299" s="4">
+      <c r="E299" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="16">
-      <c r="A300" s="3">
+      <c r="A300" s="2">
         <v>297</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="4">
         <v>98094.418100833194</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="4">
         <v>19263.676553294401</v>
       </c>
-      <c r="D300" s="5">
+      <c r="D300" s="4">
         <v>6257.7461531648996</v>
       </c>
-      <c r="E300" s="4">
+      <c r="E300" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="16">
-      <c r="A301" s="3">
+      <c r="A301" s="2">
         <v>298</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="4">
         <v>49331.583254536003</v>
       </c>
-      <c r="C301" s="5">
+      <c r="C301" s="4">
         <v>17977.186440714198</v>
       </c>
-      <c r="D301" s="5">
+      <c r="D301" s="4">
         <v>823.50388749247099</v>
       </c>
-      <c r="E301" s="4">
+      <c r="E301" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="16">
-      <c r="A302" s="3">
+      <c r="A302" s="2">
         <v>299</v>
       </c>
-      <c r="B302" s="5">
+      <c r="B302" s="4">
         <v>18132.230221997001</v>
       </c>
-      <c r="C302" s="5">
+      <c r="C302" s="4">
         <v>99533.362020305096</v>
       </c>
-      <c r="D302" s="5">
+      <c r="D302" s="4">
         <v>8933.1348582108494</v>
       </c>
-      <c r="E302" s="4">
+      <c r="E302" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="16">
-      <c r="A303" s="3">
+      <c r="A303" s="2">
         <v>300</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303" s="4">
         <v>60508.680164282297</v>
       </c>
-      <c r="C303" s="5">
+      <c r="C303" s="4">
         <v>17501.770109852201</v>
       </c>
-      <c r="D303" s="5">
+      <c r="D303" s="4">
         <v>6842.4346912154897</v>
       </c>
-      <c r="E303" s="4">
+      <c r="E303" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="16">
-      <c r="A304" s="3">
+      <c r="A304" s="2">
         <v>301</v>
       </c>
-      <c r="B304" s="5">
+      <c r="B304" s="4">
         <v>80155.728900560993</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C304" s="4">
         <v>62811.071521917802</v>
       </c>
-      <c r="D304" s="5">
+      <c r="D304" s="4">
         <v>5511.1180916603698</v>
       </c>
-      <c r="E304" s="4">
+      <c r="E304" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="16">
-      <c r="A305" s="3">
+      <c r="A305" s="2">
         <v>302</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305" s="4">
         <v>89408.073258134697</v>
       </c>
-      <c r="C305" s="5">
+      <c r="C305" s="4">
         <v>59205.253307575003</v>
       </c>
-      <c r="D305" s="5">
+      <c r="D305" s="4">
         <v>7790.3204005030702</v>
       </c>
-      <c r="E305" s="4">
+      <c r="E305" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="16">
-      <c r="A306" s="3">
+      <c r="A306" s="2">
         <v>303</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="4">
         <v>70381.440382012195</v>
       </c>
-      <c r="C306" s="5">
+      <c r="C306" s="4">
         <v>99742.624392981801</v>
       </c>
-      <c r="D306" s="5">
+      <c r="D306" s="4">
         <v>2114.0025510391301</v>
       </c>
-      <c r="E306" s="4">
+      <c r="E306" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="16">
-      <c r="A307" s="3">
+      <c r="A307" s="2">
         <v>304</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307" s="4">
         <v>41317.4698247329</v>
       </c>
-      <c r="C307" s="5">
+      <c r="C307" s="4">
         <v>28859.2753228334</v>
       </c>
-      <c r="D307" s="5">
+      <c r="D307" s="4">
         <v>2290.0490330163698</v>
       </c>
-      <c r="E307" s="4">
+      <c r="E307" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="16">
-      <c r="A308" s="3">
+      <c r="A308" s="2">
         <v>305</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="4">
         <v>38934.349345764298</v>
       </c>
-      <c r="C308" s="5">
+      <c r="C308" s="4">
         <v>57664.732400301</v>
       </c>
-      <c r="D308" s="5">
+      <c r="D308" s="4">
         <v>4792.3077429047898</v>
       </c>
-      <c r="E308" s="4">
+      <c r="E308" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="16">
-      <c r="A309" s="3">
+      <c r="A309" s="2">
         <v>306</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="4">
         <v>9281.7625585687601</v>
       </c>
-      <c r="C309" s="5">
+      <c r="C309" s="4">
         <v>68944.417906658797</v>
       </c>
-      <c r="D309" s="5">
+      <c r="D309" s="4">
         <v>6651.1692336526403</v>
       </c>
-      <c r="E309" s="4">
+      <c r="E309" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="16">
-      <c r="A310" s="3">
+      <c r="A310" s="2">
         <v>307</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="4">
         <v>8358.4992610900099</v>
       </c>
-      <c r="C310" s="5">
+      <c r="C310" s="4">
         <v>86153.949737057905</v>
       </c>
-      <c r="D310" s="5">
+      <c r="D310" s="4">
         <v>3360.28007264502</v>
       </c>
-      <c r="E310" s="4">
+      <c r="E310" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="16">
-      <c r="A311" s="3">
+      <c r="A311" s="2">
         <v>308</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311" s="4">
         <v>26864.8634564532</v>
       </c>
-      <c r="C311" s="5">
+      <c r="C311" s="4">
         <v>83999.399628861793</v>
       </c>
-      <c r="D311" s="5">
+      <c r="D311" s="4">
         <v>4965.1029656748497</v>
       </c>
-      <c r="E311" s="4">
+      <c r="E311" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="16">
-      <c r="A312" s="3">
+      <c r="A312" s="2">
         <v>309</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312" s="4">
         <v>33371.0408367161</v>
       </c>
-      <c r="C312" s="5">
+      <c r="C312" s="4">
         <v>59710.965868434003</v>
       </c>
-      <c r="D312" s="5">
+      <c r="D312" s="4">
         <v>5490.9352321533497</v>
       </c>
-      <c r="E312" s="4">
+      <c r="E312" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="16">
-      <c r="A313" s="3">
+      <c r="A313" s="2">
         <v>310</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313" s="4">
         <v>24978.3527932529</v>
       </c>
-      <c r="C313" s="5">
+      <c r="C313" s="4">
         <v>86396.057101690007</v>
       </c>
-      <c r="D313" s="5">
+      <c r="D313" s="4">
         <v>7091.3775820667297</v>
       </c>
-      <c r="E313" s="4">
+      <c r="E313" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="16">
-      <c r="A314" s="3">
+      <c r="A314" s="2">
         <v>311</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314" s="4">
         <v>82748.44588883</v>
       </c>
-      <c r="C314" s="5">
+      <c r="C314" s="4">
         <v>79465.112860147696</v>
       </c>
-      <c r="D314" s="5">
+      <c r="D314" s="4">
         <v>3775.6498267666798</v>
       </c>
-      <c r="E314" s="4">
+      <c r="E314" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="16">
-      <c r="A315" s="3">
+      <c r="A315" s="2">
         <v>312</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315" s="4">
         <v>97367.786284417496</v>
       </c>
-      <c r="C315" s="5">
+      <c r="C315" s="4">
         <v>99555.1379138825</v>
       </c>
-      <c r="D315" s="5">
+      <c r="D315" s="4">
         <v>5738.2170261950396</v>
       </c>
-      <c r="E315" s="4">
+      <c r="E315" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="16">
-      <c r="A316" s="3">
+      <c r="A316" s="2">
         <v>313</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316" s="4">
         <v>79576.692215877003</v>
       </c>
-      <c r="C316" s="5">
+      <c r="C316" s="4">
         <v>81342.204309144901</v>
       </c>
-      <c r="D316" s="5">
+      <c r="D316" s="4">
         <v>1308.5112618969599</v>
       </c>
-      <c r="E316" s="4">
+      <c r="E316" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="16">
-      <c r="A317" s="3">
+      <c r="A317" s="2">
         <v>314</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317" s="4">
         <v>51362.093265313801</v>
       </c>
-      <c r="C317" s="5">
+      <c r="C317" s="4">
         <v>56648.105888087703</v>
       </c>
-      <c r="D317" s="5">
+      <c r="D317" s="4">
         <v>3016.9274113613301</v>
       </c>
-      <c r="E317" s="4">
+      <c r="E317" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="16">
-      <c r="A318" s="3">
+      <c r="A318" s="2">
         <v>315</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318" s="4">
         <v>76104.906173412994</v>
       </c>
-      <c r="C318" s="5">
+      <c r="C318" s="4">
         <v>7039.3448648042604</v>
       </c>
-      <c r="D318" s="5">
+      <c r="D318" s="4">
         <v>9484.9063788944695</v>
       </c>
-      <c r="E318" s="4">
+      <c r="E318" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="16">
-      <c r="A319" s="3">
+      <c r="A319" s="2">
         <v>316</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319" s="4">
         <v>67581.969527163907</v>
       </c>
-      <c r="C319" s="5">
+      <c r="C319" s="4">
         <v>26708.665491760301</v>
       </c>
-      <c r="D319" s="5">
+      <c r="D319" s="4">
         <v>6763.6872531366698</v>
       </c>
-      <c r="E319" s="4">
+      <c r="E319" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="16">
-      <c r="A320" s="3">
+      <c r="A320" s="2">
         <v>317</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320" s="4">
         <v>77444.316811858997</v>
       </c>
-      <c r="C320" s="5">
+      <c r="C320" s="4">
         <v>9179.8590004573307</v>
       </c>
-      <c r="D320" s="5">
+      <c r="D320" s="4">
         <v>6107.7776204992597</v>
       </c>
-      <c r="E320" s="4">
+      <c r="E320" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="16">
-      <c r="A321" s="3">
+      <c r="A321" s="2">
         <v>318</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321" s="4">
         <v>51957.209489123299</v>
       </c>
-      <c r="C321" s="5">
+      <c r="C321" s="4">
         <v>79425.636920219797</v>
       </c>
-      <c r="D321" s="5">
+      <c r="D321" s="4">
         <v>2611.0839044259701</v>
       </c>
-      <c r="E321" s="4">
+      <c r="E321" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="16">
-      <c r="A322" s="3">
+      <c r="A322" s="2">
         <v>319</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322" s="4">
         <v>62628.009684339799</v>
       </c>
-      <c r="C322" s="5">
+      <c r="C322" s="4">
         <v>37415.698484603301</v>
       </c>
-      <c r="D322" s="5">
+      <c r="D322" s="4">
         <v>9606.7268768284102</v>
       </c>
-      <c r="E322" s="4">
+      <c r="E322" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="16">
-      <c r="A323" s="3">
+      <c r="A323" s="2">
         <v>320</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="4">
         <v>55126.584715233002</v>
       </c>
-      <c r="C323" s="5">
+      <c r="C323" s="4">
         <v>86886.781521992802</v>
       </c>
-      <c r="D323" s="5">
+      <c r="D323" s="4">
         <v>684.13413887719105</v>
       </c>
-      <c r="E323" s="4">
+      <c r="E323" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="16">
-      <c r="A324" s="3">
+      <c r="A324" s="2">
         <v>321</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324" s="4">
         <v>73644.228299883704</v>
       </c>
-      <c r="C324" s="5">
+      <c r="C324" s="4">
         <v>53348.9099090206</v>
       </c>
-      <c r="D324" s="5">
+      <c r="D324" s="4">
         <v>5213.0638959571697</v>
       </c>
-      <c r="E324" s="4">
+      <c r="E324" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="16">
-      <c r="A325" s="3">
+      <c r="A325" s="2">
         <v>322</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325" s="4">
         <v>7946.30920733537</v>
       </c>
-      <c r="C325" s="5">
+      <c r="C325" s="4">
         <v>39584.641077357301</v>
       </c>
-      <c r="D325" s="5">
+      <c r="D325" s="4">
         <v>5737.0666818278396</v>
       </c>
-      <c r="E325" s="4">
+      <c r="E325" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="16">
-      <c r="A326" s="3">
+      <c r="A326" s="2">
         <v>323</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="4">
         <v>78846.7022154101</v>
       </c>
-      <c r="C326" s="5">
+      <c r="C326" s="4">
         <v>73662.651583076993</v>
       </c>
-      <c r="D326" s="5">
+      <c r="D326" s="4">
         <v>3906.9820426289998</v>
       </c>
-      <c r="E326" s="4">
+      <c r="E326" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="16">
-      <c r="A327" s="3">
+      <c r="A327" s="2">
         <v>324</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="4">
         <v>63645.559992262097</v>
       </c>
-      <c r="C327" s="5">
+      <c r="C327" s="4">
         <v>71435.222714970703</v>
       </c>
-      <c r="D327" s="5">
+      <c r="D327" s="4">
         <v>6263.12906180148</v>
       </c>
-      <c r="E327" s="4">
+      <c r="E327" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="16">
-      <c r="A328" s="3">
+      <c r="A328" s="2">
         <v>325</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="4">
         <v>19134.855718155501</v>
       </c>
-      <c r="C328" s="5">
+      <c r="C328" s="4">
         <v>85017.867083475794</v>
       </c>
-      <c r="D328" s="5">
+      <c r="D328" s="4">
         <v>2434.51287899508</v>
       </c>
-      <c r="E328" s="4">
+      <c r="E328" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="16">
-      <c r="A329" s="3">
+      <c r="A329" s="2">
         <v>326</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="4">
         <v>100000</v>
       </c>
-      <c r="C329" s="5">
+      <c r="C329" s="4">
         <v>74860.548899978094</v>
       </c>
-      <c r="D329" s="5">
+      <c r="D329" s="4">
         <v>5499.6110948964297</v>
       </c>
-      <c r="E329" s="4">
+      <c r="E329" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="16">
-      <c r="A330" s="3">
+      <c r="A330" s="2">
         <v>327</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="4">
         <v>56645.559992262097</v>
       </c>
-      <c r="C330" s="5">
+      <c r="C330" s="4">
         <v>61435.222714970703</v>
       </c>
-      <c r="D330" s="5">
+      <c r="D330" s="4">
         <v>8463.1290618014791</v>
       </c>
-      <c r="E330" s="4">
+      <c r="E330" s="3">
         <v>0</v>
       </c>
     </row>
